--- a/Gmail.xlsx
+++ b/Gmail.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="22368" windowHeight="9335"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="create account" sheetId="1" r:id="rId4"/>
+    <sheet name="create account" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="120">
   <si>
     <t>Product Name</t>
   </si>
@@ -28,7 +31,7 @@
     <t>TC Execution Start Date</t>
   </si>
   <si>
-    <t>14/04/2021</t>
+    <t>19/06/2022</t>
   </si>
   <si>
     <t>TEST CASE SUMMARY</t>
@@ -70,9 +73,6 @@
     <t>Test Case Reviewed By</t>
   </si>
   <si>
-    <t>Sabiul Islam</t>
-  </si>
-  <si>
     <t>Performance (tested)</t>
   </si>
   <si>
@@ -125,18 +125,24 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t>1. Open the Application (</t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
       </rPr>
       <t>https://www.google.com/gmail/</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>) in any Browser
 2.Click on the Create account.</t>
     </r>
@@ -163,24 +169,6 @@
     <t>Verify Registering an Account by providing all the fields</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>1. Open the Application (</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.google.com/gmail/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>) in any Browser
-2.Click on the Create account.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">1. Go to url
 2. Click on 'Create  Account'  menu
 3. Click on 'Register' option 
@@ -199,24 +187,6 @@
     <t>Verify proper notification messages are displayed for the mandatory fields, when you don't provide any fields in the 'Register Account' page and submit</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>1. Open the Application (</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.google.com/gmail/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>) in any Browser
-2.Click on the Create account.</t>
-    </r>
-  </si>
-  <si>
     <t>Empty field</t>
   </si>
   <si>
@@ -239,24 +209,6 @@
     <t>To Check checkbox 'show password'</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>1. Open the Application (</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.google.com/gmail/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>) in any Browser
-2.Click on the Create account.</t>
-    </r>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -279,24 +231,6 @@
     <t>To Check option box</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>1. Open the Application (</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.google.com/gmail/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>) in any Browser
-2.Click on the Create account.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">1. Go to url
 2. Click on 'Create  Account'  menu
 4. Click on option box  for set language
@@ -313,24 +247,6 @@
   </si>
   <si>
     <t>Verify Registering an Account by entering different passwords into 'Password' and 'Password Confirm' fields</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>1. Open the Application (</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.google.com/gmail/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>) in any Browser
-2.Click on the Create account.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">1. Go to url
@@ -351,24 +267,6 @@
     <t>Verify Registering an Account by providing the existing account details (i.e. existing email address)</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>1. Open the Application (</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.google.com/gmail/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>) in any Browser
-2.Click on the Create account.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">1. Go to url
 2. Click on 'Create  Account'  menu
 3. Enter new Account Details into the Mandatory Fields (First Name, Last Name, E-Mail, Password, Password Confirm )
@@ -382,24 +280,6 @@
   </si>
   <si>
     <t>Verify Registering an Account by providing an invalid email address into the E-Mail field</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>1. Open the Application (</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.google.com/gmail/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>) in any Browser
-2.Click on the Create account.</t>
-    </r>
   </si>
   <si>
     <t>1) Email:to ori
@@ -423,24 +303,6 @@
     <t>Verify password less than 8 Characters</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>1. Open the Application (</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.google.com/gmail/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>) in any Browser
-2.Click on the Create account.</t>
-    </r>
-  </si>
-  <si>
     <t>Password:12345</t>
   </si>
   <si>
@@ -460,24 +322,6 @@
     <t>Verify all the fields in the Register Account page have the proper placeholders</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>1. Open the Application (</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.google.com/gmail/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>) in any Browser
-2.Click on the Create account.</t>
-    </r>
-  </si>
-  <si>
     <t>1. Proper Placeholder texts should be displayed in these fields</t>
   </si>
   <si>
@@ -490,24 +334,6 @@
     <t xml:space="preserve">Verify the details that are provided while Registering an Account are stored in the Database </t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>1. Open the Application (</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.google.com/gmail/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>) in any Browser
-2.Click on the Create account.</t>
-    </r>
-  </si>
-  <si>
     <t>1. All the details entered while registering the account are successfully stored in the Database</t>
   </si>
   <si>
@@ -518,24 +344,6 @@
   </si>
   <si>
     <t>Verify whether the Mandatory fields in the Register Account page are accepting only spaces</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>1. Open the Application (</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.google.com/gmail/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>) in any Browser
-2.Click on the Create account.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">1. Go to url
@@ -556,24 +364,6 @@
     <t>Verify whether the fields in the Register Account page are according the Client requirements (Examples- Height, Width, Number of characters etc.)</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>1. Open the Application (</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.google.com/gmail/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>) in any Browser
-2.Click on the Create account.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">1. Go to url
 2. Click on 'Create  Account'  menu
 3. Check all the fields (all the Fields (First Name, Last Name, E-Mail,, Password, Password Confirm, ) including the 'next' button </t>
@@ -591,24 +381,6 @@
     <t>Verify the Password text entered into the 'Password' and 'Password Confirm' field of 'Register Account' functionality is toggled to hide its visibility</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>1. Open the Application (</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.google.com/gmail/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>) in any Browser
-2.Click on the Create account.</t>
-    </r>
-  </si>
-  <si>
     <t>1. Go to url
 2. Click on 'Create  Account'  menu
 3. Enter some Password text into the 'Password' and 'Password Confirm' fields</t>
@@ -626,24 +398,6 @@
     <t xml:space="preserve">Verify navigating to other pages using the options or links provided on the 'Register Account' page </t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>1. Open the Application (</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.google.com/gmail/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>) in any Browser
-2.Click on the Create account.</t>
-    </r>
-  </si>
-  <si>
     <t>1. Go to url
 2. Click on 'Create  Account'  menu
 3. Try clicking on 'sign in instead' link, 'privacy' link,  'terms' link and any other options</t>
@@ -659,24 +413,6 @@
   </si>
   <si>
     <t>Verify Registring an Account, by filling 'Password' field and not filling 'Password Confirm' field</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>1. Open the Application (</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.google.com/gmail/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>) in any Browser
-2.Click on the Create account.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">1. Go to url
@@ -698,24 +434,6 @@
     <t>Verify the UI of the 'Register Account' page</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>1. Open the Application (</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.google.com/gmail/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>) in any Browser
-2.Click on the Create account.</t>
-    </r>
-  </si>
-  <si>
     <t>1. Go to url
 2. Click on 'Create  Account'  menu</t>
   </si>
@@ -727,24 +445,6 @@
   </si>
   <si>
     <t>Verify 'Register Account' functionality in all the supported environments</t>
-  </si>
-  <si>
-    <r>
-      <rPr/>
-      <t>1. Open the Application (</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://www.google.com/gmail/</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>) in any Browser
-2.Click on the Create account.</t>
-    </r>
   </si>
   <si>
     <t>1.'Register Account' functionality should work in all the supported environments</t>
@@ -756,31 +456,204 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="25">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -790,13 +663,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor rgb="FFF9CB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF9FC5E8"/>
         <bgColor rgb="FF9FC5E8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB7B7B7"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
@@ -814,31 +699,220 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF9CB9C"/>
-        <bgColor rgb="FFF9CB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCCC"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
-    <border/>
+  <borders count="12">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -848,6 +922,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -862,79 +937,344 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="3" fillId="6" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="7" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -947,7 +1287,6 @@
           <bgColor rgb="FF00FF00"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
@@ -959,7 +1298,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
@@ -971,18 +1309,19 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1172,33 +1511,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6.0" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B8" sqref="B8" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.75"/>
-    <col customWidth="1" min="2" max="2" width="27.25"/>
-    <col customWidth="1" min="3" max="3" width="26.0"/>
-    <col customWidth="1" min="4" max="4" width="30.0"/>
-    <col customWidth="1" min="5" max="5" width="41.75"/>
-    <col customWidth="1" min="6" max="6" width="32.75"/>
-    <col customWidth="1" min="7" max="7" width="23.0"/>
-    <col customWidth="1" min="10" max="10" width="23.63"/>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="41.75" customWidth="1"/>
+    <col min="6" max="6" width="32.75" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="10" max="10" width="23.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1220,12 +1562,12 @@
         <v>5</v>
       </c>
       <c r="I1" s="4"/>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1243,22 +1585,20 @@
       <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="H2" s="3"/>
       <c r="I2" s="4"/>
       <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="21">
         <f>COUNTIF(I7:I33,"PASS")</f>
         <v>18</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:11">
+      <c r="A3" s="7"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="10"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -1270,15 +1610,15 @@
         <v>14</v>
       </c>
       <c r="H3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="4"/>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="12"/>
-    </row>
-    <row r="4">
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1290,569 +1630,570 @@
       <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="11" t="s">
+      <c r="K5" s="25">
+        <f>SUM(K2:K4)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="C6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="D6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="I6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="J6" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" ht="118.8" spans="1:11">
+      <c r="A7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="21" t="s">
+      <c r="B7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="C7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22" t="s">
+      <c r="F7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="G7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="H7" s="17"/>
+      <c r="I7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+    </row>
+    <row r="8" ht="118.8" spans="1:11">
+      <c r="A8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="6" t="s">
+      <c r="B8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="22" t="s">
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+    </row>
+    <row r="9" ht="79.2" spans="1:11">
+      <c r="A9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="21" t="s">
+      <c r="C9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="E9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="F9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="21" t="s">
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" ht="66" spans="1:11">
+      <c r="A10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="F10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="G10" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="18"/>
       <c r="I10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="21" t="s">
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" ht="52.8" spans="1:11">
+      <c r="A11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H11" s="20"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>68</v>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" ht="158.4" spans="1:11">
+      <c r="A12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="20"/>
+      <c r="E12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="18"/>
       <c r="I12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>73</v>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" ht="79.2" spans="1:11">
+      <c r="A13" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="20"/>
+      <c r="E13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="18"/>
       <c r="I13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" ht="81.0" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="20"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" ht="81" customHeight="1" spans="1:11">
+      <c r="A14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="18"/>
       <c r="I14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>84</v>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" ht="79.2" spans="1:10">
+      <c r="A15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>86</v>
+        <v>76</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="20"/>
+        <v>78</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="18"/>
       <c r="I15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>90</v>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" ht="79.2" spans="1:10">
+      <c r="A16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>91</v>
+        <v>52</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="20"/>
+        <v>82</v>
+      </c>
+      <c r="H16" s="18"/>
       <c r="I16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>95</v>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" ht="79.2" spans="1:10">
+      <c r="A17" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>96</v>
+        <v>52</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="20"/>
+        <v>86</v>
+      </c>
+      <c r="H17" s="18"/>
       <c r="I17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>100</v>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" ht="79.2" spans="1:10">
+      <c r="A18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>102</v>
+        <v>52</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="20"/>
+        <v>91</v>
+      </c>
+      <c r="H18" s="18"/>
       <c r="I18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>106</v>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" ht="79.2" spans="1:10">
+      <c r="A19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>108</v>
+        <v>52</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="20"/>
+        <v>96</v>
+      </c>
+      <c r="H19" s="18"/>
       <c r="I19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>114</v>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" ht="66" spans="1:10">
+      <c r="A20" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="20"/>
+        <v>101</v>
+      </c>
+      <c r="H20" s="18"/>
       <c r="I20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>118</v>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" ht="52.8" spans="1:9">
+      <c r="A21" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>120</v>
+        <v>52</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>124</v>
+    <row r="22" ht="92.4" spans="1:9">
+      <c r="A22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="20"/>
+        <v>52</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" s="18"/>
       <c r="I22" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>130</v>
+    <row r="23" ht="52.8" spans="1:9">
+      <c r="A23" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+        <v>114</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
       <c r="I23" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" ht="66.75" customHeight="1">
-      <c r="A24" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>135</v>
+    <row r="24" ht="66.75" customHeight="1" spans="1:9">
+      <c r="A24" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>136</v>
+        <v>114</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H24" s="20"/>
+        <v>119</v>
+      </c>
+      <c r="H24" s="18"/>
       <c r="I24" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30">
-      <c r="I30" s="26"/>
+    <row r="30" ht="13.2" spans="9:9">
+      <c r="I30" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1862,31 +2203,16 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="PASS">
-      <formula>NOT(ISERROR(SEARCH(("PASS"),(I1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="WARNING">
-      <formula>NOT(ISERROR(SEARCH(("WARNING"),(I1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="FAIL">
-      <formula>NOT(ISERROR(SEARCH(("FAIL"),(I1))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K2">
     <cfRule type="colorScale" priority="4">
       <colorScale>
@@ -1897,26 +2223,38 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1000">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="between" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="between" text="WARNING">
+      <formula>NOT(ISERROR(SEARCH("WARNING",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C7"/>
-    <hyperlink r:id="rId2" ref="C8"/>
-    <hyperlink r:id="rId3" ref="C9"/>
-    <hyperlink r:id="rId4" ref="C10"/>
-    <hyperlink r:id="rId5" ref="C11"/>
-    <hyperlink r:id="rId6" ref="C12"/>
-    <hyperlink r:id="rId7" ref="C13"/>
-    <hyperlink r:id="rId8" ref="C14"/>
-    <hyperlink r:id="rId9" ref="C15"/>
-    <hyperlink r:id="rId10" ref="C16"/>
-    <hyperlink r:id="rId11" ref="C17"/>
-    <hyperlink r:id="rId12" ref="C18"/>
-    <hyperlink r:id="rId13" ref="C19"/>
-    <hyperlink r:id="rId14" ref="C20"/>
-    <hyperlink r:id="rId15" ref="C21"/>
-    <hyperlink r:id="rId16" ref="C22"/>
-    <hyperlink r:id="rId17" ref="C23"/>
-    <hyperlink r:id="rId18" ref="C24"/>
+    <hyperlink ref="C7" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
+    <hyperlink ref="C8" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
+    <hyperlink ref="C9" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
+    <hyperlink ref="C10" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
+    <hyperlink ref="C11" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
+    <hyperlink ref="C12" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
+    <hyperlink ref="C13" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
+    <hyperlink ref="C14" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
+    <hyperlink ref="C15" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
+    <hyperlink ref="C16" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
+    <hyperlink ref="C17" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
+    <hyperlink ref="C18" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
+    <hyperlink ref="C19" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
+    <hyperlink ref="C20" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
+    <hyperlink ref="C21" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
+    <hyperlink ref="C22" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
+    <hyperlink ref="C23" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
+    <hyperlink ref="C24" r:id="rId1" display="1. Open the Application (https://www.google.com/gmail/) in any Browser&#10;2.Click on the Create account."/>
   </hyperlinks>
-  <drawing r:id="rId19"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>